--- a/airfield_placement_state_to_province.xlsx
+++ b/airfield_placement_state_to_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Paradox Interactive\Hearts of Iron IV\mod\MAP_MOD_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E902CE-F2F1-406D-A958-025CB29B7C3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD89AE9-4F5A-4452-B21A-497FA25B57FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19335" yWindow="8085" windowWidth="7500" windowHeight="6000" xr2:uid="{0CA12BEF-81BD-4B54-A21F-CA5CAE3EF61E}"/>
   </bookViews>
@@ -391,8 +391,8 @@
   <dimension ref="A1:D788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
